--- a/DataExtraction/Input/DIR/DIR_2_nodes_config.xlsx
+++ b/DataExtraction/Input/DIR/DIR_2_nodes_config.xlsx
@@ -49,19 +49,19 @@
     <t>PageData</t>
   </si>
   <si>
-    <t>Name,PAN,MobileNumber,Email</t>
+    <t>DIN,PAN,MobileNumber,Email</t>
   </si>
   <si>
-    <t>name,pan,phone_number,email</t>
+    <t>din,pan,phone_number,email</t>
   </si>
   <si>
     <t>director_network</t>
   </si>
   <si>
-    <t>Name,PAN</t>
+    <t>DIN,PAN</t>
   </si>
   <si>
-    <t>name,pan</t>
+    <t>din,pan</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -232,59 +232,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -506,17 +620,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -543,10 +657,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -785,12 +899,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1067,7 +1181,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1094,10 +1208,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1339,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1470,6 +1584,50 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
